--- a/Input Documents/CR/Review/PO_SAG_CR_APP_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SAG_CR_APP_Review.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship\SAG\MobileApp_SwProcess_Documents\Input Documents\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30EFE24-65D7-4904-BA60-EF4534C47E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="11295" tabRatio="129" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="21600" windowHeight="11292" tabRatio="129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Entry Date</t>
   </si>
@@ -140,12 +139,27 @@
   </si>
   <si>
     <t xml:space="preserve">you shall delete "through the user's voice commands." from definition </t>
+  </si>
+  <si>
+    <t>CR_REVIEW_009</t>
+  </si>
+  <si>
+    <t>Esraa Abdelnaby</t>
+  </si>
+  <si>
+    <t>1/Document Status</t>
+  </si>
+  <si>
+    <t>Approval levels are missing</t>
+  </si>
+  <si>
+    <t>Add Three rows at the end for the approvals levels. Approval levels : Team Approval, Mentor Approval, Final Approval.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -251,7 +265,76 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -485,29 +568,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" customWidth="1"/>
-    <col min="7" max="7" width="68.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.109375" customWidth="1"/>
+    <col min="7" max="7" width="68.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -533,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -559,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -585,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -611,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -637,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -663,7 +746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="134.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="134.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -689,7 +772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -715,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -741,21 +824,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A2:H10">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="A2:H10">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H10">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Input Documents/CR/Review/PO_SAG_CR_APP_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SAG_CR_APP_Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\graduation project\MobileApp_SwProcess_Documents\Input Documents\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30EFE24-65D7-4904-BA60-EF4534C47E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D8E0C-C15F-43EE-9B72-4393778B8D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="11295" tabRatio="129" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="129" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Entry Date</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>DocType_REV_ID</t>
   </si>
   <si>
@@ -140,6 +137,24 @@
   </si>
   <si>
     <t xml:space="preserve">you shall delete "through the user's voice commands." from definition </t>
+  </si>
+  <si>
+    <t>CR_REVIEW_009</t>
+  </si>
+  <si>
+    <t>Esraa Abdelnaby</t>
+  </si>
+  <si>
+    <t>1/Document Status</t>
+  </si>
+  <si>
+    <t>Approval levels are missing</t>
+  </si>
+  <si>
+    <t>Add Three rows at the end for the approvals levels. Approval levels : Team Approval, Mentor Approval, Final Approval.</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -241,10 +256,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,27 +504,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" customWidth="1"/>
-    <col min="7" max="7" width="68.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.109375" customWidth="1"/>
+    <col min="7" max="7" width="68.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -527,235 +542,261 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
+    <row r="2" spans="1:8" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>44849</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>44849</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>44849</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="B5" s="2">
         <v>44849</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="B6" s="2">
         <v>44849</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="134.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="134.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="B7" s="2">
         <v>44850</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="B8" s="2">
         <v>44850</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="B9" s="2">
         <v>44850</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2:H9">
+  <conditionalFormatting sqref="A2:H10">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H9">
+  <conditionalFormatting sqref="A2:H10">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Open" sqref="H2:H10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>
